--- a/dash/assets/compendium.xlsx
+++ b/dash/assets/compendium.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="114">
   <si>
     <t>Timestamp</t>
   </si>
@@ -26,6 +26,35 @@
   </si>
   <si>
     <t>Link to Example Analysis (Optional)</t>
+  </si>
+  <si>
+    <t>Look for patterns in the MS1 scans corresponding to doubly charged compounds for which the [M+H]+ species is in the 600-1200 m/z range. Respect given intensity thresholds (also for isotopologues of the doubly charged species) and return only features for which a MS2 spectrum was acquired. Such query can be used to efficiently spot dimeric monoterpene indole alkaloids (e.g. vinblastine https://www.wikidata.org/wiki/Q282629) or sesquiterpenic alkaloids such (e.g. catheduline E2 https://www.wikidata.org/wiki/Q27106096)</t>
+  </si>
+  <si>
+    <t>QUERY scaninfo(MS2DATA) WHERE 
+X=range(min=600, max=1200) AND
+MS1MZ=X:INTENSITYPERCENT=5 AND
+MS1MZ=X/2+0.5:TOLERANCEPPM=25:INTENSITYMATCH=Y:INTENSITYMATCHREFERENCE:INTENSITYPERCENT=5 AND
+MS1MZ=X/2+1.0:TOLERANCEPPM=25:INTENSITYMATCH=Y*0.5:INTENSITYMATCHPERCENT=100
+AND MS2PREC=X FILTER MS1MZ=X</t>
+  </si>
+  <si>
+    <t>Pierre-Marie Allard</t>
+  </si>
+  <si>
+    <t>https://gnps.ucsd.edu/ProteoSAFe/status.jsp?task=f81b7a7d3e4b4158bef7fce268a1d1c6</t>
+  </si>
+  <si>
+    <t>Catecholate metallophores</t>
+  </si>
+  <si>
+    <t>QUERY scaninfo(MS2DATA) WHERE MS2PROD=X AND MS2PROD=X-136.016:TOLERANCEPPM=5:INTENSITYPERCENT=10 AND MS2PROD=137.023:TOLERANCEPPM=5:INTENSITYPERCENT=5</t>
+  </si>
+  <si>
+    <t>Marianna Iorio and Matteo Simone</t>
+  </si>
+  <si>
+    <t>https://gnps-lcms.ucsd.edu//?xic_mz=412.182622969066&amp;xic_formula=&amp;xic_peptide=&amp;xic_tolerance=0.5&amp;xic_ppm_tolerance=10&amp;xic_tolerance_unit=Da&amp;xic_rt_window=2.701191772175&amp;xic_norm=False&amp;xic_file_grouping=MZ&amp;xic_integration_type=AUC&amp;show_ms2_markers=True&amp;ms2marker_color=blue&amp;ms2marker_size=5&amp;ms2_identifier=MS2%3A941&amp;show_lcms_2nd_map=False&amp;map_plot_zoom=%7B%7D&amp;polarity_filtering=None&amp;polarity_filtering2=None&amp;tic_option=TIC&amp;overlay_usi=None&amp;overlay_mz=row+m%2Fz&amp;overlay_rt=row+retention+time&amp;overlay_color=&amp;overlay_size=&amp;overlay_hover=&amp;overlay_filter_column=&amp;overlay_filter_value=&amp;feature_finding_type=Off&amp;feature_finding_ppm=10&amp;feature_finding_noise=10000&amp;feature_finding_min_peak_rt=0.05&amp;feature_finding_max_peak_rt=1.5&amp;feature_finding_rt_tolerance=0.3&amp;massql_statement=QUERY+scaninfo%28MS2DATA%29&amp;sychronization_session_id=25b96555350d4365b3f1f16736afec61&amp;chromatogram_options=%5B%5D&amp;comment=&amp;map_plot_color_scale=Hot_r&amp;map_plot_quantization_level=Medium&amp;plot_theme=plotly_white#%7B%22usi%22%3A%20%22mzspec%3AGNPS%3ATASK-c0bfb60f0def4ce4b7e451a30cc0441c-f.SoniaMaffioli/Matteo/30036.mzML%22%2C%20%22usi_select%22%3A%20%22mzspec%3AGNPS%3ATASK-c0bfb60f0def4ce4b7e451a30cc0441c-f.SoniaMaffioli/Matteo/30036.mzML%22%2C%20%22usi2%22%3A%20%22%22%7D</t>
   </si>
   <si>
     <t>Manual</t>
@@ -391,7 +420,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -402,6 +434,10 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -423,15 +459,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -677,482 +719,519 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="2">
+        <v>44818.99034453704</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="2">
+        <v>45029.26182380787</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="C10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="C11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="C12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="C13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="C14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="C15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="C16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="A17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="C17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="A18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="C18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="A19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="C19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="A20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="C20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="A21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="C21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="A22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="C22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="A23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="C23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="A24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="C24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>74</v>
+      <c r="A25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="A26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="C26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>79</v>
+      <c r="A27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>84</v>
+      <c r="A28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="A29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="A30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="C30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="A31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>93</v>
       </c>
+      <c r="C31" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="A32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>96</v>
       </c>
+      <c r="C32" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="A33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>99</v>
       </c>
+      <c r="C33" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="A34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="C34" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" s="2" t="s">
+      <c r="A35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>105</v>
       </c>
+      <c r="C35" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>113</v>
+      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="E2"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>